--- a/analysis/xlsx/model_answer_result.xlsx
+++ b/analysis/xlsx/model_answer_result.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>model</t>
   </si>
@@ -68,130 +68,103 @@
     <t>c&amp;cpp_pass_rate</t>
   </si>
   <si>
+    <t>java_pass_count</t>
+  </si>
+  <si>
+    <t>java_failed_count</t>
+  </si>
+  <si>
     <t>chatglm-6b</t>
   </si>
   <si>
-    <t>1.75%</t>
-  </si>
-  <si>
-    <t>8.47%</t>
-  </si>
-  <si>
-    <t>0.00%</t>
+    <t>4.15%</t>
+  </si>
+  <si>
+    <t>8.54%</t>
+  </si>
+  <si>
+    <t>1.92%</t>
   </si>
   <si>
     <t>codegeex4-all-9b</t>
   </si>
   <si>
-    <t>36.84%</t>
-  </si>
-  <si>
-    <t>41.67%</t>
-  </si>
-  <si>
-    <t>32.26%</t>
-  </si>
-  <si>
-    <t>48.00%</t>
+    <t>62.63%</t>
+  </si>
+  <si>
+    <t>67.07%</t>
+  </si>
+  <si>
+    <t>63.46%</t>
   </si>
   <si>
     <t>codegen25-7b-instruct_P</t>
   </si>
   <si>
-    <t>14.02%</t>
-  </si>
-  <si>
-    <t>20.34%</t>
-  </si>
-  <si>
-    <t>9.38%</t>
-  </si>
-  <si>
     <t>CodeLlama-7b-hf</t>
   </si>
   <si>
-    <t>14.15%</t>
-  </si>
-  <si>
-    <t>28.81%</t>
-  </si>
-  <si>
-    <t>12.50%</t>
+    <t>30.69%</t>
+  </si>
+  <si>
+    <t>41.25%</t>
+  </si>
+  <si>
+    <t>28.85%</t>
   </si>
   <si>
     <t>deepseek-coder-6.7b-instruct</t>
   </si>
   <si>
-    <t>21.70%</t>
-  </si>
-  <si>
-    <t>43.33%</t>
-  </si>
-  <si>
-    <t>16.67%</t>
-  </si>
-  <si>
-    <t>40.00%</t>
+    <t>46.02%</t>
+  </si>
+  <si>
+    <t>62.20%</t>
+  </si>
+  <si>
+    <t>46.15%</t>
   </si>
   <si>
     <t>Meta-Llama-3.1-8B-Instruct</t>
   </si>
   <si>
-    <t>31.19%</t>
-  </si>
-  <si>
-    <t>39.47%</t>
-  </si>
-  <si>
-    <t>31.03%</t>
-  </si>
-  <si>
-    <t>32.00%</t>
+    <t>52.58%</t>
+  </si>
+  <si>
+    <t>57.75%</t>
+  </si>
+  <si>
+    <t>42.31%</t>
   </si>
   <si>
     <t>Mistral-7B-Instruct-v0.3</t>
   </si>
   <si>
-    <t>17.70%</t>
-  </si>
-  <si>
-    <t>29.51%</t>
-  </si>
-  <si>
-    <t>15.62%</t>
-  </si>
-  <si>
-    <t>30.77%</t>
+    <t>34.34%</t>
   </si>
   <si>
     <t>Phi-3-small-8k-instruct</t>
   </si>
   <si>
-    <t>29.29%</t>
-  </si>
-  <si>
-    <t>34.15%</t>
-  </si>
-  <si>
-    <t>20.69%</t>
-  </si>
-  <si>
-    <t>18.75%</t>
+    <t>60.47%</t>
   </si>
   <si>
     <t>starcoder2-7b</t>
   </si>
   <si>
-    <t>13.08%</t>
-  </si>
-  <si>
-    <t>23.73%</t>
-  </si>
-  <si>
-    <t>20.83%</t>
-  </si>
-  <si>
-    <t>gpt-3.5</t>
+    <t>gpt-3.5-turbo</t>
+  </si>
+  <si>
+    <t>75.60%</t>
+  </si>
+  <si>
+    <t>80.49%</t>
+  </si>
+  <si>
+    <t>78.85%</t>
+  </si>
+  <si>
+    <t>72.92%</t>
   </si>
 </sst>
 </file>
@@ -215,6 +188,7 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -830,13 +804,13 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1184,19 +1158,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="30.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="12" max="12" width="15.6666666666667" customWidth="1"/>
+    <col min="13" max="13" width="12.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="57.6" spans="1:14">
+    <row r="1" spans="1:17">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1237,465 +1212,546 @@
       <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2"/>
     </row>
-    <row r="2" ht="28.8" spans="1:14">
+    <row r="2" spans="1:17">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1">
-        <v>112</v>
+        <v>185</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G2" s="1">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L2" s="1">
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>24</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>16</v>
+        <v>47</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" ht="28.8" spans="1:14">
+    <row r="3" spans="1:17">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="D3" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1">
+        <v>55</v>
+      </c>
+      <c r="G3" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1">
+        <v>33</v>
+      </c>
+      <c r="J3" s="1">
+        <v>19</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="1">
         <v>18</v>
       </c>
-      <c r="F3" s="1">
-        <v>25</v>
-      </c>
-      <c r="G3" s="1">
-        <v>35</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="1">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1">
-        <v>21</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="1">
-        <v>12</v>
-      </c>
       <c r="M3" s="1">
-        <v>13</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.4285</v>
+      </c>
+      <c r="O3" s="1">
+        <v>26</v>
+      </c>
+      <c r="P3" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0.6341</v>
       </c>
     </row>
-    <row r="4" ht="57.6" spans="1:14">
+    <row r="4" spans="1:17">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="D4" s="1">
-        <v>92</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>117</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.4105</v>
       </c>
       <c r="F4" s="1">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="G4" s="1">
-        <v>47</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.5243</v>
       </c>
       <c r="I4" s="1">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="J4" s="1">
-        <v>29</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.4038</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M4" s="1">
-        <v>23</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.2978</v>
+      </c>
+      <c r="O4" s="1">
+        <v>8</v>
+      </c>
+      <c r="P4" s="1">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0.1951</v>
       </c>
     </row>
-    <row r="5" ht="28.8" spans="1:14">
+    <row r="5" spans="1:17">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1">
+        <v>58</v>
+      </c>
+      <c r="D5" s="1">
+        <v>131</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1">
+        <v>33</v>
+      </c>
+      <c r="G5" s="1">
+        <v>47</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="1">
+      <c r="I5" s="1">
         <v>15</v>
       </c>
-      <c r="D5" s="1">
-        <v>91</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="J5" s="1">
+        <v>37</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="1">
-        <v>17</v>
-      </c>
-      <c r="G5" s="1">
-        <v>42</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="1">
-        <v>3</v>
-      </c>
-      <c r="J5" s="1">
-        <v>29</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="L5" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M5" s="1">
-        <v>21</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.1914</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10</v>
+      </c>
+      <c r="P5" s="1">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0.2439</v>
       </c>
     </row>
-    <row r="6" ht="57.6" spans="1:14">
+    <row r="6" spans="1:17">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1">
+        <v>81</v>
+      </c>
+      <c r="D6" s="1">
+        <v>95</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1">
+        <v>51</v>
+      </c>
+      <c r="G6" s="1">
+        <v>31</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="1">
+      <c r="I6" s="1">
+        <v>24</v>
+      </c>
+      <c r="J6" s="1">
+        <v>28</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="1">
+        <v>17</v>
+      </c>
+      <c r="M6" s="1">
+        <v>30</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="O6" s="1">
+        <v>18</v>
+      </c>
+      <c r="P6" s="1">
         <v>23</v>
       </c>
-      <c r="D6" s="1">
-        <v>83</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="1">
-        <v>26</v>
-      </c>
-      <c r="G6" s="1">
-        <v>34</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="1">
-        <v>5</v>
-      </c>
-      <c r="J6" s="1">
-        <v>25</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="1">
-        <v>10</v>
-      </c>
-      <c r="M6" s="1">
-        <v>15</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>34</v>
+      <c r="Q6" s="3">
+        <v>0.439</v>
       </c>
     </row>
-    <row r="7" ht="57.6" spans="1:14">
+    <row r="7" spans="1:17">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1">
+        <v>102</v>
+      </c>
+      <c r="D7" s="1">
+        <v>92</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1">
+        <v>41</v>
+      </c>
+      <c r="G7" s="1">
+        <v>30</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="1">
+        <v>22</v>
+      </c>
+      <c r="J7" s="1">
+        <v>30</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="1">
-        <v>34</v>
-      </c>
-      <c r="D7" s="1">
-        <v>75</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="L7" s="1">
         <v>15</v>
       </c>
-      <c r="G7" s="1">
-        <v>23</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="1">
-        <v>9</v>
-      </c>
-      <c r="J7" s="1">
-        <v>20</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="1">
-        <v>8</v>
-      </c>
       <c r="M7" s="1">
-        <v>17</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.3191</v>
+      </c>
+      <c r="O7" s="1">
+        <v>2</v>
+      </c>
+      <c r="P7" s="1">
+        <v>45</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0.0425</v>
       </c>
     </row>
-    <row r="8" ht="57.6" spans="1:14">
+    <row r="8" spans="1:17">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F8" s="1">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G8" s="1">
-        <v>43</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.3902</v>
       </c>
       <c r="I8" s="1">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="J8" s="1">
-        <v>27</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.4432</v>
       </c>
       <c r="L8" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M8" s="1">
-        <v>18</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.2978</v>
+      </c>
+      <c r="O8" s="1">
+        <v>16</v>
+      </c>
+      <c r="P8" s="1">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0.3902</v>
       </c>
     </row>
-    <row r="9" ht="57.6" spans="1:14">
+    <row r="9" spans="1:17">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1">
+        <v>104</v>
+      </c>
+      <c r="D9" s="1">
+        <v>68</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="1">
+        <v>31</v>
+      </c>
+      <c r="G9" s="1">
+        <v>51</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.378</v>
+      </c>
+      <c r="I9" s="1">
+        <v>19</v>
+      </c>
+      <c r="J9" s="1">
+        <v>33</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.3643</v>
+      </c>
+      <c r="L9" s="1">
+        <v>12</v>
+      </c>
+      <c r="M9" s="1">
+        <v>35</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.2553</v>
+      </c>
+      <c r="O9" s="1">
+        <v>12</v>
+      </c>
+      <c r="P9" s="1">
         <v>29</v>
       </c>
-      <c r="D9" s="1">
-        <v>70</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="1">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1">
-        <v>27</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="1">
-        <v>6</v>
-      </c>
-      <c r="J9" s="1">
-        <v>23</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L9" s="1">
-        <v>3</v>
-      </c>
-      <c r="M9" s="1">
-        <v>13</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>49</v>
+      <c r="Q9" s="3">
+        <v>0.2926</v>
       </c>
     </row>
-    <row r="10" ht="28.8" spans="1:14">
+    <row r="10" spans="1:17">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="D10" s="1">
-        <v>93</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>51</v>
+        <v>113</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.4114</v>
       </c>
       <c r="F10" s="1">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G10" s="1">
         <v>45</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>52</v>
+      <c r="H10" s="3">
+        <v>0.3658</v>
       </c>
       <c r="I10" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J10" s="1">
-        <v>29</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.2884</v>
       </c>
       <c r="L10" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="M10" s="1">
-        <v>19</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>53</v>
+        <v>34</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.2765</v>
+      </c>
+      <c r="O10" s="1">
+        <v>9</v>
+      </c>
+      <c r="P10" s="1">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0.2195</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:17">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1">
+        <v>158</v>
+      </c>
+      <c r="D11" s="1">
+        <v>51</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="1">
         <v>66</v>
       </c>
-      <c r="D11" s="1">
-        <v>47</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.584</v>
-      </c>
-      <c r="F11" s="1">
-        <v>38</v>
-      </c>
       <c r="G11" s="1">
+        <v>16</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="1">
+        <v>41</v>
+      </c>
+      <c r="J11" s="1">
+        <v>11</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="1">
+        <v>35</v>
+      </c>
+      <c r="M11" s="1">
+        <v>13</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11" s="1">
         <v>22</v>
       </c>
-      <c r="H11" s="3">
-        <v>0.6333</v>
-      </c>
-      <c r="I11" s="1">
-        <v>18</v>
-      </c>
-      <c r="J11" s="1">
-        <v>14</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0.5652</v>
-      </c>
-      <c r="L11" s="1">
+      <c r="P11" s="1">
         <v>19</v>
       </c>
-      <c r="M11" s="1">
-        <v>7</v>
-      </c>
-      <c r="N11" s="3">
-        <v>0.7307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="Q11" s="3">
+        <v>0.5365</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/analysis/xlsx/model_answer_result.xlsx
+++ b/analysis/xlsx/model_answer_result.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>model</t>
   </si>
@@ -80,16 +80,10 @@
     <t>4.15%</t>
   </si>
   <si>
-    <t>8.54%</t>
-  </si>
-  <si>
     <t>1.92%</t>
   </si>
   <si>
     <t>codegeex4-all-9b</t>
-  </si>
-  <si>
-    <t>62.63%</t>
   </si>
   <si>
     <t>67.07%</t>
@@ -1161,7 +1155,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1242,8 +1236,8 @@
       <c r="G2" s="1">
         <v>75</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
+      <c r="H2" s="3">
+        <v>0.0854</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -1252,7 +1246,7 @@
         <v>51</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L2" s="1">
         <v>0</v>
@@ -1278,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1">
         <v>124</v>
@@ -1286,8 +1280,8 @@
       <c r="D3" s="1">
         <v>74</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
+      <c r="E3" s="3">
+        <v>0.6263</v>
       </c>
       <c r="F3" s="1">
         <v>55</v>
@@ -1296,7 +1290,7 @@
         <v>27</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I3" s="1">
         <v>33</v>
@@ -1305,7 +1299,7 @@
         <v>19</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L3" s="1">
         <v>18</v>
@@ -1331,7 +1325,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1">
         <v>83</v>
@@ -1384,7 +1378,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1">
         <v>58</v>
@@ -1393,7 +1387,7 @@
         <v>131</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1">
         <v>33</v>
@@ -1402,7 +1396,7 @@
         <v>47</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I5" s="1">
         <v>15</v>
@@ -1411,7 +1405,7 @@
         <v>37</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L5" s="1">
         <v>9</v>
@@ -1437,7 +1431,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1">
         <v>81</v>
@@ -1446,7 +1440,7 @@
         <v>95</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1">
         <v>51</v>
@@ -1455,7 +1449,7 @@
         <v>31</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I6" s="1">
         <v>24</v>
@@ -1464,7 +1458,7 @@
         <v>28</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L6" s="1">
         <v>17</v>
@@ -1490,7 +1484,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1">
         <v>102</v>
@@ -1499,7 +1493,7 @@
         <v>92</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7" s="1">
         <v>41</v>
@@ -1508,7 +1502,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I7" s="1">
         <v>22</v>
@@ -1517,7 +1511,7 @@
         <v>30</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L7" s="1">
         <v>15</v>
@@ -1543,7 +1537,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1">
         <v>68</v>
@@ -1552,7 +1546,7 @@
         <v>130</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8" s="1">
         <v>32</v>
@@ -1596,7 +1590,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1">
         <v>104</v>
@@ -1605,7 +1599,7 @@
         <v>68</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F9" s="1">
         <v>31</v>
@@ -1649,7 +1643,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1">
         <v>79</v>
@@ -1702,7 +1696,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1">
         <v>158</v>
@@ -1711,7 +1705,7 @@
         <v>51</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F11" s="1">
         <v>66</v>
@@ -1720,7 +1714,7 @@
         <v>16</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I11" s="1">
         <v>41</v>
@@ -1729,7 +1723,7 @@
         <v>11</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L11" s="1">
         <v>35</v>
@@ -1738,7 +1732,7 @@
         <v>13</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O11" s="1">
         <v>22</v>

--- a/analysis/xlsx/model_answer_result.xlsx
+++ b/analysis/xlsx/model_answer_result.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>model</t>
   </si>
@@ -38,127 +38,58 @@
     <t>python_failed_count</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>python_pass_rate</t>
   </si>
   <si>
-    <t>javascript_pass_count</t>
-  </si>
-  <si>
-    <t>javascript_failed_count</t>
-  </si>
-  <si>
-    <t>javascript_pass_rate</t>
-  </si>
-  <si>
-    <t>typescript_pass_count</t>
-  </si>
-  <si>
-    <t>typescript_failed_count</t>
-  </si>
-  <si>
-    <t>typescript_pass_rate</t>
-  </si>
-  <si>
-    <t>c&amp;cpp_pass_count</t>
-  </si>
-  <si>
-    <t>c&amp;cpp_failed_count</t>
-  </si>
-  <si>
-    <t>c&amp;cpp_pass_rate</t>
-  </si>
-  <si>
-    <t>java_pass_count</t>
-  </si>
-  <si>
-    <t>java_failed_count</t>
-  </si>
-  <si>
     <t>chatglm-6b</t>
   </si>
   <si>
-    <t>4.15%</t>
-  </si>
-  <si>
-    <t>1.92%</t>
+    <t>pass1</t>
+  </si>
+  <si>
+    <t>26.38%</t>
   </si>
   <si>
     <t>codegeex4-all-9b</t>
   </si>
   <si>
-    <t>67.07%</t>
-  </si>
-  <si>
-    <t>63.46%</t>
-  </si>
-  <si>
-    <t>codegen25-7b-instruct_P</t>
-  </si>
-  <si>
-    <t>CodeLlama-7b-hf</t>
-  </si>
-  <si>
-    <t>30.69%</t>
-  </si>
-  <si>
-    <t>41.25%</t>
-  </si>
-  <si>
-    <t>28.85%</t>
+    <t>pass10</t>
   </si>
   <si>
     <t>deepseek-coder-6.7b-instruct</t>
   </si>
   <si>
-    <t>46.02%</t>
-  </si>
-  <si>
-    <t>62.20%</t>
-  </si>
-  <si>
-    <t>46.15%</t>
+    <t>49.99%</t>
   </si>
   <si>
     <t>Meta-Llama-3.1-8B-Instruct</t>
   </si>
   <si>
-    <t>52.58%</t>
-  </si>
-  <si>
-    <t>57.75%</t>
-  </si>
-  <si>
-    <t>42.31%</t>
+    <t>47.45%</t>
   </si>
   <si>
     <t>Mistral-7B-Instruct-v0.3</t>
   </si>
   <si>
-    <t>34.34%</t>
+    <t>33.41%</t>
   </si>
   <si>
     <t>Phi-3-small-8k-instruct</t>
   </si>
   <si>
-    <t>60.47%</t>
-  </si>
-  <si>
-    <t>starcoder2-7b</t>
+    <t>45.03%</t>
   </si>
   <si>
     <t>gpt-3.5-turbo</t>
   </si>
   <si>
-    <t>75.60%</t>
-  </si>
-  <si>
-    <t>80.49%</t>
-  </si>
-  <si>
-    <t>78.85%</t>
-  </si>
-  <si>
-    <t>72.92%</t>
+    <t>70.13%</t>
+  </si>
+  <si>
+    <t>gpt-4</t>
   </si>
 </sst>
 </file>
@@ -171,7 +102,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +112,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -650,148 +588,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1152,21 +1090,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="12" max="12" width="15.6666666666667" customWidth="1"/>
-    <col min="13" max="13" width="12.1111111111111" customWidth="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="22.6666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="18.8888888888889" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="1"/>
+    <row r="1" spans="2:6">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1182,566 +1122,265 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="D2" s="1">
-        <v>185</v>
+        <v>307</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1">
-        <v>75</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0.0854</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>51</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>47</v>
-      </c>
-      <c r="N2" s="3">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>47</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
-        <v>124</v>
+        <v>250</v>
       </c>
       <c r="D3" s="1">
-        <v>74</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.6263</v>
-      </c>
-      <c r="F3" s="1">
-        <v>55</v>
-      </c>
-      <c r="G3" s="1">
-        <v>27</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="1">
-        <v>33</v>
-      </c>
-      <c r="J3" s="1">
-        <v>19</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="1">
-        <v>18</v>
-      </c>
-      <c r="M3" s="1">
-        <v>29</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0.4285</v>
-      </c>
-      <c r="O3" s="1">
-        <v>26</v>
-      </c>
-      <c r="P3" s="1">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>0.6341</v>
+        <v>143</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.6361</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
-        <v>83</v>
+        <v>2434</v>
       </c>
       <c r="D4" s="1">
-        <v>117</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.4105</v>
-      </c>
-      <c r="F4" s="1">
-        <v>43</v>
-      </c>
-      <c r="G4" s="1">
-        <v>39</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0.5243</v>
-      </c>
-      <c r="I4" s="1">
-        <v>21</v>
-      </c>
-      <c r="J4" s="1">
-        <v>31</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0.4038</v>
-      </c>
-      <c r="L4" s="1">
-        <v>14</v>
-      </c>
-      <c r="M4" s="1">
-        <v>33</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0.2978</v>
-      </c>
-      <c r="O4" s="1">
-        <v>8</v>
-      </c>
-      <c r="P4" s="1">
-        <v>34</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>0.1951</v>
+        <v>1736</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.5836</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>58</v>
+        <v>221</v>
       </c>
       <c r="D5" s="1">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="1">
-        <v>33</v>
-      </c>
-      <c r="G5" s="1">
-        <v>47</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="1">
-        <v>15</v>
-      </c>
-      <c r="J5" s="1">
-        <v>37</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="1">
-        <v>9</v>
-      </c>
-      <c r="M5" s="1">
-        <v>38</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0.1914</v>
-      </c>
-      <c r="O5" s="1">
-        <v>10</v>
-      </c>
-      <c r="P5" s="1">
-        <v>31</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>0.2439</v>
+        <v>6</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.5249</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
-        <v>81</v>
+        <v>1943</v>
       </c>
       <c r="D6" s="1">
-        <v>95</v>
+        <v>1944</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="1">
-        <v>51</v>
-      </c>
-      <c r="G6" s="1">
-        <v>31</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="1">
-        <v>24</v>
-      </c>
-      <c r="J6" s="1">
-        <v>28</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="1">
-        <v>17</v>
-      </c>
-      <c r="M6" s="1">
-        <v>30</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0.36</v>
-      </c>
-      <c r="O6" s="1">
-        <v>18</v>
-      </c>
-      <c r="P6" s="1">
-        <v>23</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>0.439</v>
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1">
-        <v>102</v>
+        <v>195</v>
       </c>
       <c r="D7" s="1">
-        <v>92</v>
+        <v>216</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="1">
-        <v>41</v>
-      </c>
-      <c r="G7" s="1">
-        <v>30</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="1">
-        <v>22</v>
-      </c>
-      <c r="J7" s="1">
-        <v>30</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="1">
-        <v>15</v>
-      </c>
-      <c r="M7" s="1">
-        <v>32</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0.3191</v>
-      </c>
-      <c r="O7" s="1">
-        <v>2</v>
-      </c>
-      <c r="P7" s="1">
-        <v>45</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>0.0425</v>
+        <v>6</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1">
-        <v>68</v>
+        <v>1876</v>
       </c>
       <c r="D8" s="1">
-        <v>130</v>
+        <v>2174</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="1">
-        <v>32</v>
-      </c>
-      <c r="G8" s="1">
-        <v>50</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0.3902</v>
-      </c>
-      <c r="I8" s="1">
-        <v>23</v>
-      </c>
-      <c r="J8" s="1">
-        <v>29</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0.4432</v>
-      </c>
-      <c r="L8" s="1">
-        <v>14</v>
-      </c>
-      <c r="M8" s="1">
-        <v>33</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0.2978</v>
-      </c>
-      <c r="O8" s="1">
-        <v>16</v>
-      </c>
-      <c r="P8" s="1">
-        <v>25</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0.3902</v>
+        <v>9</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.4632</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="D9" s="1">
-        <v>68</v>
+        <v>279</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="1">
-        <v>31</v>
-      </c>
-      <c r="G9" s="1">
-        <v>51</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0.378</v>
-      </c>
-      <c r="I9" s="1">
-        <v>19</v>
-      </c>
-      <c r="J9" s="1">
-        <v>33</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0.3643</v>
-      </c>
-      <c r="L9" s="1">
-        <v>12</v>
-      </c>
-      <c r="M9" s="1">
-        <v>35</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0.2553</v>
-      </c>
-      <c r="O9" s="1">
-        <v>12</v>
-      </c>
-      <c r="P9" s="1">
-        <v>29</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0.2926</v>
+        <v>6</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="D10" s="1">
-        <v>113</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.4114</v>
-      </c>
-      <c r="F10" s="1">
-        <v>30</v>
-      </c>
-      <c r="G10" s="1">
-        <v>45</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0.3658</v>
-      </c>
-      <c r="I10" s="1">
-        <v>15</v>
-      </c>
-      <c r="J10" s="1">
-        <v>37</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0.2884</v>
-      </c>
-      <c r="L10" s="1">
-        <v>13</v>
-      </c>
-      <c r="M10" s="1">
-        <v>34</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0.2765</v>
-      </c>
-      <c r="O10" s="1">
-        <v>9</v>
-      </c>
-      <c r="P10" s="1">
-        <v>32</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0.2195</v>
+        <v>199</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1">
-        <v>158</v>
+        <v>277</v>
       </c>
       <c r="D11" s="1">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="1">
-        <v>66</v>
-      </c>
-      <c r="G11" s="1">
-        <v>16</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="1">
-        <v>41</v>
-      </c>
-      <c r="J11" s="1">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2608</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1313</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.6651</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" s="1">
-        <v>35</v>
-      </c>
-      <c r="M11" s="1">
-        <v>13</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O11" s="1">
-        <v>22</v>
-      </c>
-      <c r="P11" s="1">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>0.5365</v>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1">
+        <v>328</v>
+      </c>
+      <c r="D13" s="1">
+        <v>67</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.8304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2990</v>
+      </c>
+      <c r="D14" s="1">
+        <v>924</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.7639</v>
       </c>
     </row>
   </sheetData>
